--- a/medicine/Enfance/Phosphore_(magazine)/Phosphore_(magazine).xlsx
+++ b/medicine/Enfance/Phosphore_(magazine)/Phosphore_(magazine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Phosphore est un magazine édité par le groupe Bayard depuis 1981 et destiné aux lycéens, à partir de 15 ans. Il fait partie des magazines généralistes de Bayard jeunesse, comme Pomme d'api, Astrapi et Okapi. Mensuel à sa création, il devient bimensuel en 2018[1]. Le magazine a pour objectifs d'aider les lycéens à acquérir des connaissances sur l'actualité internationale, de les informer sur les débats de société, de présenter des articles avant-gardistes ainsi que des idées et/ou astuces pour le quotidien.
-Chaque année, le magazine sort trois numéros spéciaux pour aider ses lecteurs à préparer leur orientation et leur avenir : « Le Guide des métiers », « Le Guide des études sup' » et « Le Guide pour réussir ses examens »[2].
+Phosphore est un magazine édité par le groupe Bayard depuis 1981 et destiné aux lycéens, à partir de 15 ans. Il fait partie des magazines généralistes de Bayard jeunesse, comme Pomme d'api, Astrapi et Okapi. Mensuel à sa création, il devient bimensuel en 2018. Le magazine a pour objectifs d'aider les lycéens à acquérir des connaissances sur l'actualité internationale, de les informer sur les débats de société, de présenter des articles avant-gardistes ainsi que des idées et/ou astuces pour le quotidien.
+Chaque année, le magazine sort trois numéros spéciaux pour aider ses lecteurs à préparer leur orientation et leur avenir : « Le Guide des métiers », « Le Guide des études sup' » et « Le Guide pour réussir ses examens ».
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le magazine Phosphore est créé dix ans après Okapi.
 Il contient des informations utiles à la réussite scolaire. Auparavant Phosphore se présentait davantage comme un  « document parascolaire », il a depuis pris la forme d'un journal, ciblant un public plus jeune, particulièrement des collégiens et des lycéens, avec une approche de sujets d'actualités qui se démarque du format journal d'actualités type. 
 Il aborde des sujets que l'on retrouve dans les programmes scolaires. De plus, il accompagne les élèves durant la totalité de leur parcours scolaire : la rentrée, les préinscriptions, les différents diplômes , etc..
 Le magazine contient dans ses premières pages une rubrique concernant la culture générale dite « moderne ». Cette rubrique est consacrée notamment à la culture musicale, cinématographique, littéraire et politique. Le magazine dispose également d'une rubrique « questions - réponses » (« Vous avez des questions ? Nous avons des réponses ») abordant des problématiques d'actualités (et scolaires).
 [réf. nécessaire]
-La promesse[Quoi ?] de Phosphore, au début des années 1980, c'était de réussir ses « années lycée ». Aujourd'hui, la devise de la revue est « Phosphore, le mag qui t'éclaire »[3].
+La promesse[Quoi ?] de Phosphore, au début des années 1980, c'était de réussir ses « années lycée ». Aujourd'hui, la devise de la revue est « Phosphore, le mag qui t'éclaire ».
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Équipe[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Directeur de la publication : Pascal Ruffenach
 Directrice de la presse jeunesse et des rédactions : Nathalie Becht
@@ -582,9 +598,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La diffusion totale est en augmentation constante jusqu'en 2012 et diminue à compter de l'année suivante[5]. La diffusion du titre se compte à partir du 1er juillet jusqu'au 30 juin de l'année qui suit[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La diffusion totale est en augmentation constante jusqu'en 2012 et diminue à compter de l'année suivante. La diffusion du titre se compte à partir du 1er juillet jusqu'au 30 juin de l'année qui suit.
 2009/2010 : 45 521 exemplaires
 2010/2011 : 45 918 exemplaires
 2011/2012 : 48 977 exemplaires
@@ -623,19 +641,93 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Give Me Five
-Une application mobile qui, 5 jours par semaine propose 5 actualités à lire en 5 minutes dès 17h05. Chaque jour, l'application aborde des sujets divers : France, Monde, Science, Sport, Culture ou encore Économie. L'application a gagné un « Trophée des Apps et de l'Internet Mobile 2017 »[7].
-La chaîne YouTube Phosphore
-Elle propose 7 séries originales[8] : 
-Adam Croque l’Info : débats d’actu avec l'étudiant youtubeur Adam Bros[9]
+          <t>Give Me Five</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une application mobile qui, 5 jours par semaine propose 5 actualités à lire en 5 minutes dès 17h05. Chaque jour, l'application aborde des sujets divers : France, Monde, Science, Sport, Culture ou encore Économie. L'application a gagné un « Trophée des Apps et de l'Internet Mobile 2017 ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phosphore_(magazine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phosphore_(magazine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Application, chaîne YouTube et coaching</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La chaîne YouTube Phosphore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elle propose 7 séries originales : 
+Adam Croque l’Info : débats d’actu avec l'étudiant youtubeur Adam Bros
 ASQ : les youtubeurs Nadjélika et Sacko répondent aux questions les plus intimes des lecteurs
 Mon métier en 2 minutes : un(e) jeune professionnel(le) raconte son métier en lien avec les professions présentées dans le magazine en kiosque
 "Mes études en 3 minutes" : un(e) étudiant(e) présente son école pour faire découvrir aux jeunes les différentes écoles, filières et voies professionnelles qui existent.
-"Infox ? Ripostes !": le youtubeur Thomas Gautier et des scientifiques décodent le vrai du faux sur de nombreuses fake news[10]
-"Point de vue" : Un journaliste apprend aux jeunes à décrypter les photos d'actu[11]
-"Mon bac français en poche" : la youtubeuse Jenna aide les lycéens à réviser les classiques de la littérature pour l'épreuve du bac de français[12]
-Le Coaching Phosphore
-Un service payant de coaching orientation personnalisé[13] destiné aux jeunes de 15 à 25 ans. Les séances de coaching sont conçues et animées par des psychologues et coachs d'orientation expérimentés.
+"Infox ? Ripostes !": le youtubeur Thomas Gautier et des scientifiques décodent le vrai du faux sur de nombreuses fake news
+"Point de vue" : Un journaliste apprend aux jeunes à décrypter les photos d'actu
+"Mon bac français en poche" : la youtubeuse Jenna aide les lycéens à réviser les classiques de la littérature pour l'épreuve du bac de français</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phosphore_(magazine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phosphore_(magazine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Application, chaîne YouTube et coaching</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le Coaching Phosphore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un service payant de coaching orientation personnalisé destiné aux jeunes de 15 à 25 ans. Les séances de coaching sont conçues et animées par des psychologues et coachs d'orientation expérimentés.
 </t>
         </is>
       </c>
